--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -766,11 +770,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,17 +788,17 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,13 +817,16 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -830,8 +840,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,11 +984,11 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -976,12 +996,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,17 +1178,18 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1183,43 +1217,46 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
@@ -1227,13 +1264,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1241,8 +1281,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1253,8 +1293,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1268,49 +1308,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,17 +1704,20 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1675,52 +1745,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,32 +1967,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -1919,11 +2006,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2001,11 +2094,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2018,18 +2114,18 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
@@ -2042,16 +2138,19 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2072,63 +2171,69 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2189,10 +2297,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2209,8 +2317,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2329,7 @@
         <v>2000</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
         <v>2100</v>
@@ -2229,8 +2340,8 @@
       <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>2100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2238,20 +2349,23 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2352,12 +2472,12 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
         <v>2400</v>
       </c>
       <c r="F54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,34 +2619,35 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2527,23 +2658,26 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2556,41 +2690,44 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -2609,28 +2746,31 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2639,7 +2779,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2650,11 +2790,14 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,25 +3013,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -2885,7 +3043,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -2896,11 +3054,14 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2400</v>
       </c>
       <c r="H76" s="3">
         <v>2400</v>
       </c>
       <c r="I76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J76" s="3">
         <v>2900</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2500</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3448,31 +3647,34 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,31 +3890,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3714,11 +3931,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,29 +4084,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3895,11 +4125,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,32 +4322,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4117,11 +4363,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4407,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4199,7 +4451,10 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,102 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -773,11 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,17 +797,17 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,16 +826,19 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -843,8 +852,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,13 +986,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -987,11 +1006,11 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -999,12 +1018,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,20 +1211,21 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1220,46 +1253,49 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
@@ -1267,25 +1303,28 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1335,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1311,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,20 +1773,23 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1748,55 +1817,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,26 +2063,26 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2009,11 +2095,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2065,23 +2157,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2097,11 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,18 +2212,18 @@
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
@@ -2141,11 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2174,66 +2272,72 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2300,10 +2407,10 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2332,7 +2442,7 @@
         <v>2000</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="3">
         <v>2100</v>
@@ -2343,8 +2453,8 @@
       <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>2100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2352,20 +2462,23 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2475,12 +2594,12 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2549,43 +2674,46 @@
         <v>2200</v>
       </c>
       <c r="E54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F54" s="3">
         <v>2400</v>
       </c>
       <c r="G54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,37 +2749,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2661,26 +2791,29 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2693,44 +2826,47 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -2749,31 +2885,34 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -2782,7 +2921,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -2793,11 +2932,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,28 +3170,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3046,7 +3203,7 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3057,11 +3214,14 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2400</v>
       </c>
       <c r="I76" s="3">
         <v>2400</v>
       </c>
       <c r="J76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2900</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3650,31 +3848,34 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,34 +4106,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3934,11 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,32 +4313,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4128,11 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,35 +4567,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4366,11 +4611,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,38 +4658,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,7 +4705,10 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,26 +748,26 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -779,11 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,17 +807,17 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,11 +848,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -855,8 +865,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1009,11 +1029,11 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1021,12 +1041,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,46 +1135,49 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,14 +1255,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1256,11 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,37 +1305,37 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1343,22 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1326,8 +1366,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1338,8 +1378,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,14 +1855,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1820,58 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,26 +2153,26 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2098,11 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2160,22 +2253,22 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2192,11 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2215,17 +2311,17 @@
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2239,11 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2275,22 +2374,25 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,46 +2400,49 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2410,10 +2518,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2445,7 +2556,7 @@
         <v>2000</v>
       </c>
       <c r="G49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H49" s="3">
         <v>2100</v>
@@ -2456,8 +2567,8 @@
       <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>2100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2465,20 +2576,23 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
         <v>2400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,43 +2803,46 @@
         <v>2200</v>
       </c>
       <c r="F54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2400</v>
       </c>
       <c r="H54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,31 +2890,31 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2794,28 +2925,31 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2829,23 +2963,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,22 +2990,22 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2888,34 +3025,37 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -2924,7 +3064,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -2935,11 +3075,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,31 +3328,34 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3206,7 +3364,7 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3217,11 +3375,14 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2400</v>
       </c>
       <c r="J76" s="3">
         <v>2400</v>
       </c>
       <c r="K76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L76" s="3">
         <v>2900</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3851,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>100</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3862,11 +4061,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,37 +4323,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4153,11 +4370,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,35 +4543,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4360,11 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +4813,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4614,11 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,11 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,29 +4925,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4708,7 +4960,10 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -786,16 +790,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -810,17 +817,17 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,23 +846,26 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -868,8 +878,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1032,11 +1052,11 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1044,12 +1064,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,14 +1292,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1293,52 +1327,55 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1369,8 +1409,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1381,8 +1421,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1858,14 +1928,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1893,61 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2227,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2156,26 +2243,26 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2188,11 +2275,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,13 +2331,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2256,22 +2349,22 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2288,16 +2381,19 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -2314,17 +2410,17 @@
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2338,11 +2434,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2377,72 +2476,78 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,13 +2596,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2521,10 +2629,10 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2541,13 +2649,16 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="E49" s="3">
         <v>2000</v>
@@ -2559,7 +2670,7 @@
         <v>2000</v>
       </c>
       <c r="H49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I49" s="3">
         <v>2100</v>
@@ -2570,8 +2681,8 @@
       <c r="K49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>2100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2579,20 +2690,23 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
         <v>2400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,15 +2837,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,13 +2914,16 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2200</v>
+        <v>10100</v>
       </c>
       <c r="E54" s="3">
         <v>2200</v>
@@ -2806,43 +2932,46 @@
         <v>2200</v>
       </c>
       <c r="G54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H54" s="3">
         <v>2400</v>
       </c>
       <c r="I54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,43 +3011,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2928,31 +3059,34 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2966,49 +3100,52 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3028,37 +3165,40 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3067,7 +3207,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -3078,16 +3218,19 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,34 +3486,37 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3367,7 +3525,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3378,11 +3536,14 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2400</v>
       </c>
       <c r="K76" s="3">
         <v>2400</v>
       </c>
       <c r="L76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M76" s="3">
         <v>2900</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2500</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4053,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4064,11 +4263,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,40 +4540,43 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4373,11 +4590,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,16 +4773,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4563,21 +4793,21 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4593,11 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,41 +5059,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4863,16 +5109,19 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4913,44 +5162,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4963,7 +5215,10 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -793,11 +797,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,7 +812,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -820,17 +827,17 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,26 +856,29 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -881,8 +891,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1055,11 +1075,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1067,12 +1087,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,14 +1329,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1330,55 +1364,58 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
@@ -1386,25 +1423,28 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1412,8 +1452,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1424,8 +1464,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1931,14 +2001,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1966,64 +2036,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2314,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2237,7 +2324,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2246,26 +2333,26 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2278,11 +2365,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2343,7 +2436,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2352,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2384,19 +2477,22 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2413,17 +2509,17 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2437,16 +2533,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2458,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2479,22 +2578,25 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2502,52 +2604,55 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,17 +2704,20 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
@@ -2632,10 +2740,10 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,7 +2772,7 @@
         <v>8500</v>
       </c>
       <c r="E49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="F49" s="3">
         <v>2000</v>
@@ -2673,7 +2784,7 @@
         <v>2000</v>
       </c>
       <c r="I49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J49" s="3">
         <v>2100</v>
@@ -2684,8 +2795,8 @@
       <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>2100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2693,20 +2804,23 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,15 +2960,15 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,16 +3040,19 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2200</v>
       </c>
       <c r="F54" s="3">
         <v>2200</v>
@@ -2935,43 +3061,46 @@
         <v>2200</v>
       </c>
       <c r="H54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>2400</v>
       </c>
       <c r="J54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,46 +3142,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3062,34 +3193,37 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3103,23 +3237,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3127,28 +3264,28 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3168,11 +3305,14 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3180,28 +3320,28 @@
         <v>2600</v>
       </c>
       <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3210,7 +3350,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3221,20 +3361,23 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3644,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,28 +3656,28 @@
         <v>2800</v>
       </c>
       <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -3528,7 +3686,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3539,11 +3697,14 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2400</v>
       </c>
       <c r="L76" s="3">
         <v>2400</v>
       </c>
       <c r="M76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2500</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,13 +4423,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4255,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4266,11 +4465,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,43 +4757,46 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4593,11 +4810,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4806,11 +5036,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4826,11 +5056,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,35 +5317,35 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5112,19 +5358,22 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5165,47 +5414,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5218,7 +5470,10 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,129 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -800,11 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +821,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -830,17 +836,17 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,29 +865,32 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -894,8 +903,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1064,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1078,11 +1097,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1090,12 +1109,12 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,14 +1365,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1367,58 +1400,61 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
@@ -1426,28 +1462,31 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1455,8 +1494,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1467,8 +1506,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1482,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2004,14 +2073,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2039,67 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,19 +2400,20 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2336,26 +2422,26 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2368,11 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,19 +2516,22 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2448,22 +2540,22 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2480,11 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2492,10 +2587,10 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -2512,17 +2607,17 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2536,19 +2631,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2560,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2581,78 +2679,84 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,11 +2823,11 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
@@ -2743,10 +2850,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2763,19 +2870,22 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="E49" s="3">
         <v>8500</v>
       </c>
       <c r="F49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="G49" s="3">
         <v>2000</v>
@@ -2787,7 +2897,7 @@
         <v>2000</v>
       </c>
       <c r="J49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K49" s="3">
         <v>2100</v>
@@ -2798,8 +2908,8 @@
       <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>2100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2807,20 +2917,23 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3">
         <v>2400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2963,15 +3082,15 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,19 +3165,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2200</v>
@@ -3064,43 +3189,46 @@
         <v>2200</v>
       </c>
       <c r="I54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J54" s="3">
         <v>2400</v>
       </c>
       <c r="K54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3152,40 +3282,40 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3196,37 +3326,40 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3240,23 +3373,26 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3267,28 +3403,28 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3308,43 +3444,46 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="3">
         <v>2600</v>
       </c>
       <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3353,7 +3492,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3364,11 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3376,11 +3518,11 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3423,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,40 +3801,43 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
         <v>2800</v>
       </c>
       <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3689,7 +3846,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -3700,11 +3857,14 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2400</v>
       </c>
       <c r="M76" s="3">
         <v>2400</v>
       </c>
       <c r="N76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4433,7 +4631,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4457,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4468,11 +4666,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,46 +4973,49 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4813,11 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,31 +5057,32 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5017,14 +5246,14 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5039,11 +5268,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5059,11 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,47 +5550,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5361,19 +5606,22 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5417,50 +5665,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5473,7 +5724,10 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -806,11 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,7 +831,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -839,17 +846,17 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,32 +875,35 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -906,8 +916,8 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1100,11 +1120,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1112,12 +1132,12 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,117 +1242,123 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1368,14 +1402,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1403,61 +1437,64 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,22 +1514,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1497,8 +1537,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1509,8 +1549,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2076,14 +2146,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2111,70 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,22 +2487,23 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2425,26 +2512,26 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2457,11 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,22 +2609,25 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2543,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2575,11 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2590,10 +2686,10 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2610,17 +2706,17 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2634,22 +2730,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2661,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2682,81 +2781,87 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,23 +2919,26 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1100</v>
       </c>
       <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
@@ -2853,10 +2961,10 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2873,22 +2981,25 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E49" s="3">
         <v>8600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>8500</v>
       </c>
       <c r="F49" s="3">
         <v>8500</v>
       </c>
       <c r="G49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
@@ -2900,7 +3011,7 @@
         <v>2000</v>
       </c>
       <c r="K49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L49" s="3">
         <v>2100</v>
@@ -2911,8 +3022,8 @@
       <c r="N49" s="3">
         <v>2100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>2100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2920,20 +3031,23 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3">
         <v>2400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3085,15 +3205,15 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,22 +3291,25 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2200</v>
       </c>
       <c r="H54" s="3">
         <v>2200</v>
@@ -3192,43 +3318,46 @@
         <v>2200</v>
       </c>
       <c r="J54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>2400</v>
       </c>
       <c r="L54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,52 +3403,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3329,11 +3460,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,28 +3475,28 @@
         <v>1600</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3376,23 +3510,26 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3406,28 +3543,28 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3447,46 +3584,49 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2600</v>
       </c>
       <c r="F60" s="3">
         <v>2600</v>
       </c>
       <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3495,7 +3635,7 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3506,11 +3646,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3521,11 +3664,11 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,43 +3959,46 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>2800</v>
       </c>
       <c r="G66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3849,7 +4007,7 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -3860,11 +4018,14 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>7800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2400</v>
       </c>
       <c r="N76" s="3">
         <v>2400</v>
       </c>
       <c r="O76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2500</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,7 +4833,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4658,10 +4857,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4669,11 +4868,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,49 +5190,52 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5032,11 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5278,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -5084,8 +5305,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5246,8 +5476,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -5255,8 +5485,8 @@
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5271,11 +5501,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5291,11 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,50 +5796,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5609,11 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,53 +5917,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5727,7 +5979,10 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -813,16 +817,19 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -834,7 +841,7 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -849,17 +856,17 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -878,35 +885,38 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -919,8 +929,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,13 +977,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>300</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1105,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1109,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1123,11 +1143,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1135,12 +1155,12 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>4300</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-500</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,14 +1439,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1440,64 +1474,67 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,22 +1557,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1540,8 +1580,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1552,8 +1592,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2149,14 +2219,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2184,73 +2254,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,25 +2574,26 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2515,26 +2602,26 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2547,11 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,25 +2702,28 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2639,22 +2732,22 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2671,11 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2689,10 +2785,10 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2709,17 +2805,17 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2733,25 +2829,28 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2763,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2784,84 +2883,90 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2931,17 +3039,17 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
       </c>
       <c r="G48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
@@ -2964,10 +3072,10 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2984,25 +3092,28 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>8500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8500</v>
       </c>
       <c r="G49" s="3">
         <v>8500</v>
       </c>
       <c r="H49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="I49" s="3">
         <v>2000</v>
@@ -3014,7 +3125,7 @@
         <v>2000</v>
       </c>
       <c r="L49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M49" s="3">
         <v>2100</v>
@@ -3025,8 +3136,8 @@
       <c r="O49" s="3">
         <v>2100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>2100</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -3034,20 +3145,23 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3">
         <v>2400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3208,15 +3328,15 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,25 +3417,28 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>2200</v>
@@ -3321,43 +3447,46 @@
         <v>2200</v>
       </c>
       <c r="K54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L54" s="3">
         <v>2400</v>
       </c>
       <c r="M54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,55 +3534,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3463,43 +3594,46 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
       </c>
       <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3513,23 +3647,26 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3546,28 +3683,28 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3587,49 +3724,52 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2600</v>
       </c>
       <c r="G60" s="3">
         <v>2600</v>
       </c>
       <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3638,7 +3778,7 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3649,16 +3789,19 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -3667,11 +3810,11 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,46 +4117,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
       </c>
       <c r="G66" s="3">
         <v>2800</v>
       </c>
       <c r="H66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -4010,7 +4168,7 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -4021,11 +4179,14 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2400</v>
       </c>
       <c r="O76" s="3">
         <v>2400</v>
       </c>
       <c r="P76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2500</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,13 +5019,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4836,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4860,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4871,11 +5070,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,52 +5407,55 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5252,11 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,19 +5499,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -5308,8 +5529,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,13 +5692,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5479,8 +5709,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -5488,8 +5718,8 @@
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5504,11 +5734,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5524,11 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,53 +6042,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5858,11 +6104,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +6169,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5982,7 +6234,10 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,44 +770,44 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -820,19 +823,22 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -844,7 +850,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -859,17 +865,17 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,38 +894,41 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -932,8 +941,8 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,17 +990,18 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1132,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1146,11 +1165,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1158,12 +1177,12 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,14 +1475,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1477,67 +1510,70 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1583,8 +1622,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1595,8 +1634,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2222,14 +2291,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2257,76 +2326,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,28 +2660,29 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2605,26 +2691,26 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2637,11 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2714,19 +2806,19 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2735,22 +2827,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2767,11 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2788,10 +2883,10 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2808,17 +2903,17 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2832,11 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2844,16 +2942,16 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2865,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2886,87 +2984,93 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,29 +3134,32 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
       </c>
       <c r="H48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
@@ -3075,10 +3182,10 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3095,28 +3202,31 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8500</v>
       </c>
       <c r="H49" s="3">
         <v>8500</v>
       </c>
       <c r="I49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="J49" s="3">
         <v>2000</v>
@@ -3128,7 +3238,7 @@
         <v>2000</v>
       </c>
       <c r="M49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N49" s="3">
         <v>2100</v>
@@ -3139,8 +3249,8 @@
       <c r="P49" s="3">
         <v>2100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>2100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3148,20 +3258,23 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3">
         <v>2400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3331,15 +3450,15 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,28 +3542,31 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2200</v>
       </c>
       <c r="J54" s="3">
         <v>2200</v>
@@ -3450,43 +3575,46 @@
         <v>2200</v>
       </c>
       <c r="L54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="M54" s="3">
         <v>2400</v>
       </c>
       <c r="N54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,58 +3664,59 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3597,11 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,34 +3742,34 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
       </c>
       <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3650,28 +3783,31 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3686,28 +3822,28 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3727,52 +3863,55 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
       </c>
       <c r="H60" s="3">
         <v>2600</v>
       </c>
       <c r="I60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3781,7 +3920,7 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3792,11 +3931,14 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,7 +3946,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3813,11 +3955,11 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3860,31 +4002,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,40 +4286,40 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2800</v>
       </c>
       <c r="H66" s="3">
         <v>2800</v>
       </c>
       <c r="I66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -4171,7 +4328,7 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4182,11 +4339,14 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2400</v>
       </c>
       <c r="P76" s="3">
         <v>2400</v>
       </c>
       <c r="Q76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2500</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,16 +5217,17 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5038,7 +5236,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5062,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -5073,11 +5271,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,55 +5623,58 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5472,11 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,22 +5719,23 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -5532,8 +5752,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,16 +5921,19 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5712,8 +5941,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -5721,8 +5950,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5737,11 +5966,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5757,11 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,56 +6287,59 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6107,11 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,59 +6420,62 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6237,7 +6488,10 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,44 +777,44 @@
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -826,11 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,10 +845,10 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -853,7 +860,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -868,17 +875,17 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,32 +916,32 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -944,8 +954,8 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,20 +1004,21 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,11 +1156,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1154,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1168,11 +1188,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1180,12 +1200,12 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
       <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,14 +1512,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1513,70 +1547,73 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,22 +1642,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1625,8 +1665,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1637,8 +1677,8 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2294,14 +2364,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2329,79 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,31 +2747,32 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2694,26 +2781,26 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2726,11 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2809,19 +2902,19 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2830,22 +2923,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2862,16 +2955,19 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2886,10 +2982,10 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2906,17 +3002,17 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2930,31 +3026,34 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2966,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2987,90 +3086,96 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,23 +3254,23 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
       </c>
       <c r="I48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
@@ -3185,10 +3293,10 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,22 +3325,22 @@
         <v>6200</v>
       </c>
       <c r="E49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>8500</v>
       </c>
       <c r="I49" s="3">
         <v>8500</v>
       </c>
       <c r="J49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="K49" s="3">
         <v>2000</v>
@@ -3241,7 +3352,7 @@
         <v>2000</v>
       </c>
       <c r="N49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="O49" s="3">
         <v>2100</v>
@@ -3252,8 +3363,8 @@
       <c r="Q49" s="3">
         <v>2100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>2100</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3261,20 +3372,23 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3">
         <v>2400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3453,15 +3573,15 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,31 +3668,34 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E54" s="3">
         <v>12000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>2200</v>
@@ -3578,43 +3704,46 @@
         <v>2200</v>
       </c>
       <c r="M54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="N54" s="3">
         <v>2400</v>
       </c>
       <c r="O54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2500</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,61 +3795,62 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3730,11 +3861,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3745,34 +3879,34 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
       </c>
       <c r="H58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3786,23 +3920,26 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,7 +3947,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3825,28 +3962,28 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3866,55 +4003,58 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2600</v>
       </c>
       <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3923,7 +4063,7 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
@@ -3934,11 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,7 +4092,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -3958,11 +4101,11 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4005,16 +4148,19 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -4031,8 +4177,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,52 +4432,55 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
       </c>
       <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>2800</v>
       </c>
       <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4331,7 +4489,7 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
@@ -4342,11 +4500,14 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E76" s="3">
         <v>11100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2400</v>
       </c>
       <c r="Q76" s="3">
         <v>2400</v>
       </c>
       <c r="R76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2500</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5416,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5239,7 +5438,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5263,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -5274,11 +5473,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,58 +5840,61 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5691,11 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,25 +5940,26 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -5755,8 +5976,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,19 +6151,22 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5944,8 +6174,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -5953,8 +6183,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5969,11 +6199,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5989,11 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,59 +6533,62 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6355,11 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6423,62 +6672,65 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6491,7 +6743,10 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
@@ -780,44 +785,44 @@
         <v>500</v>
       </c>
       <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -833,11 +838,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,10 +856,10 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -863,7 +871,7 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -878,17 +886,17 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,44 +915,47 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -957,8 +968,8 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
@@ -978,8 +989,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,16 +1029,16 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -1076,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1165,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,11 +1180,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1177,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1191,11 +1212,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1203,12 +1224,12 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
         <v>2500</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1218,8 +1239,11 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-500</v>
       </c>
       <c r="R18" s="3">
         <v>-500</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1516,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1515,14 +1550,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1550,11 +1585,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,61 +1600,61 @@
         <v>-1000</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
@@ -1624,8 +1662,11 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1654,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1668,8 +1709,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1680,8 +1721,8 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1695,79 +1736,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
       </c>
       <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1884,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
       </c>
       <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2254,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2402,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2367,14 +2438,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2402,82 +2473,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,34 +2835,35 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2784,26 +2872,26 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2816,11 +2904,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2981,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2905,19 +2999,19 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2926,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2958,11 +3052,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2970,7 +3067,7 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2985,10 +3082,10 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -3005,17 +3102,17 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3029,34 +3126,37 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3068,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3089,93 +3189,99 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,35 +3351,38 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1100</v>
       </c>
       <c r="F48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1100</v>
       </c>
       <c r="J48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
@@ -3296,10 +3405,10 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3316,8 +3425,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,22 +3440,22 @@
         <v>6200</v>
       </c>
       <c r="F49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8500</v>
       </c>
       <c r="J49" s="3">
         <v>8500</v>
       </c>
       <c r="K49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="L49" s="3">
         <v>2000</v>
@@ -3355,7 +3467,7 @@
         <v>2000</v>
       </c>
       <c r="O49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="P49" s="3">
         <v>2100</v>
@@ -3366,8 +3478,8 @@
       <c r="R49" s="3">
         <v>2100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>2100</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -3375,20 +3487,23 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3">
         <v>2400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3647,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3576,15 +3697,15 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3721,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,34 +3795,37 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2200</v>
       </c>
       <c r="L54" s="3">
         <v>2200</v>
@@ -3707,43 +3834,46 @@
         <v>2200</v>
       </c>
       <c r="N54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="O54" s="3">
         <v>2400</v>
       </c>
       <c r="P54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2500</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,64 +3927,65 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3864,11 +3996,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3882,34 +4017,34 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>1600</v>
       </c>
       <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3923,23 +4058,26 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3950,7 +4088,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3965,28 +4103,28 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4006,11 +4144,14 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,46 +4159,46 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2600</v>
       </c>
       <c r="J60" s="3">
         <v>2600</v>
       </c>
       <c r="K60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -4066,7 +4207,7 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -4077,11 +4218,14 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4095,7 +4239,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4104,11 +4248,11 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4151,19 +4295,22 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -4180,8 +4327,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4222,8 +4369,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,55 +4591,58 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>900</v>
       </c>
       <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
       </c>
       <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4492,7 +4651,7 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
@@ -4503,11 +4662,14 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E76" s="3">
         <v>10400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2400</v>
       </c>
       <c r="R76" s="3">
         <v>2400</v>
       </c>
       <c r="S76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2500</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5616,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5428,20 +5628,20 @@
       <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5465,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5476,11 +5676,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5488,8 +5688,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,61 +6058,64 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5911,11 +6129,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6162,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5952,17 +6174,17 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -5979,8 +6201,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6012,8 +6234,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6382,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6165,20 +6396,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -6186,8 +6417,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6202,11 +6433,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6222,11 +6453,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,62 +6780,65 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6604,11 +6851,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6675,65 +6925,68 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6746,7 +6999,10 @@
       <c r="X102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,125 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
@@ -788,44 +792,44 @@
         <v>500</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -841,16 +845,19 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -859,10 +866,10 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -874,7 +881,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -889,17 +896,17 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
@@ -918,47 +925,50 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -971,8 +981,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
@@ -992,8 +1002,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,17 +1046,17 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,13 +1185,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1183,11 +1203,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1201,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1215,11 +1235,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1227,12 +1247,12 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
         <v>2500</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,8 +1262,11 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
       <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1550,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,14 +1587,14 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1588,76 +1622,79 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="E21" s="3">
         <v>-1000</v>
       </c>
       <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
@@ -1665,13 +1702,16 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1698,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1712,8 +1752,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1724,8 +1764,8 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1739,82 +1779,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1887,8 +1933,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,8 +2472,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2441,14 +2511,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2476,85 +2546,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,37 +2922,38 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2875,26 +2962,26 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2907,11 +2994,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,8 +3074,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3002,19 +3095,19 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3023,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3055,11 +3148,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3070,7 +3166,7 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -3085,10 +3181,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -3105,17 +3201,17 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3129,11 +3225,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3141,25 +3240,25 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>300</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3171,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3192,96 +3291,102 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,8 +3459,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3363,29 +3471,29 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
@@ -3408,10 +3516,10 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3428,13 +3536,16 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="E49" s="3">
         <v>6200</v>
@@ -3443,13 +3554,13 @@
         <v>6200</v>
       </c>
       <c r="G49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8600</v>
       </c>
       <c r="J49" s="3">
         <v>8500</v>
@@ -3458,7 +3569,7 @@
         <v>8500</v>
       </c>
       <c r="L49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="M49" s="3">
         <v>2000</v>
@@ -3470,7 +3581,7 @@
         <v>2000</v>
       </c>
       <c r="P49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q49" s="3">
         <v>2100</v>
@@ -3481,8 +3592,8 @@
       <c r="S49" s="3">
         <v>2100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>2100</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3490,20 +3601,23 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" s="3">
         <v>2400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2500</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3767,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3700,15 +3820,15 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3724,8 +3844,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,37 +3921,40 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>2200</v>
       </c>
       <c r="M54" s="3">
         <v>2200</v>
@@ -3837,43 +3963,46 @@
         <v>2200</v>
       </c>
       <c r="O54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="P54" s="3">
         <v>2400</v>
       </c>
       <c r="Q54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2500</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,8 +4058,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3937,58 +4068,58 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
-        <v>900</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -3999,11 +4130,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4020,34 +4154,34 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4061,23 +4195,26 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4091,13 +4228,13 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -4106,28 +4243,28 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4147,61 +4284,64 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>2700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2600</v>
       </c>
       <c r="L60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
@@ -4210,7 +4350,7 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4221,11 +4361,14 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4242,20 +4385,20 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4298,8 +4441,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4307,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -4330,8 +4476,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4372,8 +4518,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,8 +4749,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4603,19 +4761,19 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
       </c>
       <c r="H66" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="I66" s="3">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
@@ -4624,28 +4782,28 @@
         <v>2800</v>
       </c>
       <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -4654,7 +4812,7 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
@@ -4665,11 +4823,14 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-12700</v>
       </c>
-      <c r="I72" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E76" s="3">
         <v>9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J76" s="3">
         <v>7300</v>
       </c>
-      <c r="I76" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2400</v>
       </c>
       <c r="S76" s="3">
         <v>2400</v>
       </c>
       <c r="T76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2500</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,8 +5815,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5631,21 +5830,21 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5668,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5679,11 +5878,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
-        <v>100</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5691,8 +5890,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,64 +6275,67 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6132,11 +6349,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,8 +6383,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6177,17 +6398,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -6204,8 +6425,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6237,8 +6458,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,8 +6612,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6399,29 +6629,29 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6436,11 +6666,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6456,11 +6686,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6720,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +6795,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,8 +7026,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6792,56 +7038,56 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6854,11 +7100,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,68 +7177,71 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7002,7 +7254,10 @@
       <c r="Y102" s="3">
         <v>0</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,120 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,10 +786,10 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
@@ -795,44 +798,44 @@
         <v>500</v>
       </c>
       <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -848,19 +851,22 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -869,10 +875,10 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -884,7 +890,7 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -899,17 +905,17 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,50 +934,53 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -984,8 +993,8 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
@@ -1005,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,13 +1046,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -1049,17 +1062,17 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,17 +1204,20 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1206,11 +1225,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1224,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1238,11 +1257,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1250,12 +1269,12 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3">
         <v>2500</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1284,11 @@
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2400</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
       <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1583,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,14 +1623,14 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1625,79 +1658,82 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1000</v>
       </c>
       <c r="F21" s="3">
         <v>-1000</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
@@ -1705,16 +1741,19 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1741,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1755,8 +1794,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1767,8 +1806,8 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1782,85 +1821,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
       <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1936,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
       <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2321,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2541,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2514,14 +2583,14 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2549,88 +2618,94 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,40 +3008,41 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2965,26 +3051,26 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -2997,11 +3083,14 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,13 +3166,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3101,16 +3193,16 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3119,22 +3211,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3151,11 +3243,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3169,7 +3264,7 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -3184,10 +3279,10 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
@@ -3204,17 +3299,17 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3228,11 +3323,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3243,25 +3341,25 @@
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3273,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3294,99 +3392,105 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3462,25 +3566,28 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
@@ -3489,14 +3596,14 @@
         <v>1000</v>
       </c>
       <c r="K48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
@@ -3519,10 +3626,10 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3539,8 +3646,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3658,7 @@
         <v>5800</v>
       </c>
       <c r="E49" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="F49" s="3">
         <v>6200</v>
@@ -3557,10 +3667,10 @@
         <v>6200</v>
       </c>
       <c r="H49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I49" s="3">
         <v>6300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8500</v>
       </c>
       <c r="J49" s="3">
         <v>8500</v>
@@ -3572,7 +3682,7 @@
         <v>8500</v>
       </c>
       <c r="M49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="N49" s="3">
         <v>2000</v>
@@ -3584,7 +3694,7 @@
         <v>2000</v>
       </c>
       <c r="Q49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="R49" s="3">
         <v>2100</v>
@@ -3595,8 +3705,8 @@
       <c r="T49" s="3">
         <v>2100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>2100</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3604,20 +3714,23 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2500</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3823,15 +3942,15 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +3966,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,40 +4046,43 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2200</v>
       </c>
       <c r="N54" s="3">
         <v>2200</v>
@@ -3966,43 +4091,46 @@
         <v>2200</v>
       </c>
       <c r="P54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="Q54" s="3">
         <v>2400</v>
       </c>
       <c r="R54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2500</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,8 +4188,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4071,58 +4201,58 @@
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4133,11 +4263,14 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4157,34 +4290,34 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4198,23 +4331,26 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4231,14 +4367,14 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
@@ -4246,28 +4382,28 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4287,64 +4423,67 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2600</v>
       </c>
       <c r="L60" s="3">
         <v>2600</v>
       </c>
       <c r="M60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -4353,7 +4492,7 @@
         <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
@@ -4364,11 +4503,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4391,17 +4533,17 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4444,8 +4586,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4456,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -4479,8 +4624,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4521,8 +4666,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,31 +4906,34 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
       </c>
       <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>1100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2800</v>
       </c>
       <c r="K66" s="3">
         <v>2800</v>
@@ -4785,28 +4942,28 @@
         <v>2800</v>
       </c>
       <c r="M66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4815,7 +4972,7 @@
         <v>200</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
@@ -4826,11 +4983,14 @@
       <c r="Z66" s="3">
         <v>0</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-200</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E76" s="3">
         <v>8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>2400</v>
       </c>
       <c r="T76" s="3">
         <v>2400</v>
       </c>
       <c r="U76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2500</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5833,21 +6031,21 @@
       <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5870,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5881,11 +6079,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
@@ -5893,8 +6091,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,67 +6491,70 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6352,11 +6568,14 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6410,8 +6630,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -6428,8 +6648,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6461,8 +6681,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6632,29 +6861,29 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6669,11 +6898,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6689,11 +6918,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6798,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,8 +7271,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7041,56 +7286,56 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7103,11 +7348,14 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,71 +7428,74 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7257,7 +7508,10 @@
       <c r="Z102" s="3">
         <v>0</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NTRB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>NTRB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
@@ -801,44 +805,44 @@
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -854,22 +858,25 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -878,10 +885,10 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -893,7 +900,7 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -908,17 +915,17 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,53 +944,56 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -996,8 +1006,8 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
@@ -1017,8 +1027,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1070,7 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1065,17 +1079,17 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,20 +1224,23 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1228,11 +1248,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1246,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1260,11 +1280,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
@@ -1272,12 +1292,12 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2500</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1307,11 @@
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,8 +1420,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1403,159 +1430,165 @@
         <v>1500</v>
       </c>
       <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2400</v>
       </c>
-      <c r="Y17" s="3">
-        <v>100</v>
-      </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
       <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
       </c>
       <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,8 +1617,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,14 +1660,14 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1661,82 +1695,85 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1000</v>
       </c>
       <c r="G21" s="3">
         <v>-1000</v>
       </c>
       <c r="H21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
@@ -1744,19 +1781,22 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1783,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1797,8 +1837,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1849,8 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1824,88 +1864,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
       </c>
       <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1984,8 +2030,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
       </c>
       <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
       <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,8 +2611,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2586,14 +2656,14 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2621,91 +2691,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
       <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
       <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,43 +3095,44 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -3054,26 +3141,26 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -3086,11 +3173,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,8 +3259,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3178,7 +3271,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3196,16 +3289,16 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3214,22 +3307,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3246,11 +3339,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3267,7 +3363,7 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -3282,10 +3378,10 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
@@ -3302,17 +3398,17 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3326,16 +3422,19 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -3344,25 +3443,25 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3374,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3395,102 +3494,108 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,8 +3674,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3578,19 +3686,19 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -3599,14 +3707,14 @@
         <v>1000</v>
       </c>
       <c r="L48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
@@ -3629,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
@@ -3649,19 +3757,22 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E49" s="3">
         <v>5800</v>
       </c>
       <c r="F49" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G49" s="3">
         <v>6200</v>
@@ -3670,10 +3781,10 @@
         <v>6200</v>
       </c>
       <c r="I49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J49" s="3">
         <v>6300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>8500</v>
       </c>
       <c r="K49" s="3">
         <v>8500</v>
@@ -3685,7 +3796,7 @@
         <v>8500</v>
       </c>
       <c r="N49" s="3">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="O49" s="3">
         <v>2000</v>
@@ -3697,7 +3808,7 @@
         <v>2000</v>
       </c>
       <c r="R49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="S49" s="3">
         <v>2100</v>
@@ -3708,8 +3819,8 @@
       <c r="U49" s="3">
         <v>2100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3">
+        <v>2100</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3717,20 +3828,23 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3">
         <v>2400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2500</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4006,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3945,15 +4065,15 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3">
         <v>1900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3969,8 +4089,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,43 +4172,46 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2200</v>
       </c>
       <c r="O54" s="3">
         <v>2200</v>
@@ -4094,43 +4220,46 @@
         <v>2200</v>
       </c>
       <c r="Q54" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="R54" s="3">
         <v>2400</v>
       </c>
       <c r="S54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2500</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,8 +4319,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4204,58 +4335,58 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4266,16 +4397,19 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4293,34 +4427,34 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4334,28 +4468,31 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -4370,14 +4507,14 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
@@ -4385,28 +4522,28 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4426,67 +4563,70 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
       </c>
       <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2600</v>
       </c>
       <c r="M60" s="3">
         <v>2600</v>
       </c>
       <c r="N60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4495,7 +4635,7 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
@@ -4506,16 +4646,19 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4536,17 +4679,17 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4589,8 +4732,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4604,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -4627,8 +4773,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4669,8 +4815,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,34 +5064,37 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>900</v>
       </c>
       <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
       </c>
       <c r="J66" s="3">
+        <v>900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2800</v>
       </c>
       <c r="L66" s="3">
         <v>2800</v>
@@ -4945,28 +5103,28 @@
         <v>2800</v>
       </c>
       <c r="N66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4975,7 +5133,7 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>0</v>
@@ -4986,11 +5144,14 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-200</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2400</v>
       </c>
       <c r="U76" s="3">
         <v>2400</v>
       </c>
       <c r="V76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
       <c r="X76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2500</v>
       </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
       <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6212,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6034,21 +6233,21 @@
       <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -6071,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -6082,11 +6281,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6094,8 +6293,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,70 +6708,73 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-400</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6571,11 +6788,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +6824,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6633,8 +6854,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -6651,8 +6872,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6684,8 +6905,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,8 +7071,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6864,29 +7094,29 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6901,11 +7131,11 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6921,11 +7151,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,13 +7517,16 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7289,56 +7535,56 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7351,11 +7597,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7431,74 +7680,77 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7511,7 +7763,10 @@
       <c r="AA102" s="3">
         <v>0</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
